--- a/Proyect/data/barrios/Excel Barrios/Barrios.xlsx
+++ b/Proyect/data/barrios/Excel Barrios/Barrios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="10980" yWindow="460" windowWidth="17820" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Barrios" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="506">
   <si>
     <t>Zona Central</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Juniors</t>
   </si>
   <si>
-    <t>Country Lomas de la Carolina</t>
-  </si>
-  <si>
     <t>Villa Retiro</t>
   </si>
   <si>
@@ -590,9 +587,6 @@
     <t>Jardín Espinosa</t>
   </si>
   <si>
-    <t>Country Las Delicias</t>
-  </si>
-  <si>
     <t>Patricios Oeste</t>
   </si>
   <si>
@@ -719,9 +713,6 @@
     <t>Alto Verde</t>
   </si>
   <si>
-    <t>Parque San Vicente</t>
-  </si>
-  <si>
     <t>Teniente Benjamín Matienzo</t>
   </si>
   <si>
@@ -1166,9 +1157,6 @@
     <t>La Salle</t>
   </si>
   <si>
-    <t>Country Fortin del Pozo</t>
-  </si>
-  <si>
     <t>Los Eucaliptus</t>
   </si>
   <si>
@@ -1220,9 +1208,6 @@
     <t>Villa Marta</t>
   </si>
   <si>
-    <t>Country Jockey Club</t>
-  </si>
-  <si>
     <t>Las Cañitas</t>
   </si>
   <si>
@@ -1247,9 +1232,6 @@
     <t>Villa Eucarística</t>
   </si>
   <si>
-    <t>Los Prados II</t>
-  </si>
-  <si>
     <t>Sarmiento</t>
   </si>
   <si>
@@ -1460,12 +1442,6 @@
     <t>Barranquitas</t>
   </si>
   <si>
-    <t>La Cascada Country Golf</t>
-  </si>
-  <si>
-    <t>La Santina Country</t>
-  </si>
-  <si>
     <t>Valle Cercano</t>
   </si>
   <si>
@@ -1503,6 +1479,69 @@
   </si>
   <si>
     <t>San Vicente</t>
+  </si>
+  <si>
+    <t>Res. Vélez Sársfield</t>
+  </si>
+  <si>
+    <t>Villa Allende</t>
+  </si>
+  <si>
+    <t>Mendiolaza Golf</t>
+  </si>
+  <si>
+    <t>Lomas del Chateau</t>
+  </si>
+  <si>
+    <t>Altos de La Calera</t>
+  </si>
+  <si>
+    <t>Valle del Sol</t>
+  </si>
+  <si>
+    <t>Solares de San Alfonso</t>
+  </si>
+  <si>
+    <t>Terrazas de Villa Allende</t>
+  </si>
+  <si>
+    <t>Los Prados</t>
+  </si>
+  <si>
+    <t>Santa Isabel</t>
+  </si>
+  <si>
+    <t>Mendiolaza</t>
+  </si>
+  <si>
+    <t>Malagueño</t>
+  </si>
+  <si>
+    <t>La Calera</t>
+  </si>
+  <si>
+    <t>Maipú</t>
+  </si>
+  <si>
+    <t>La Santina</t>
+  </si>
+  <si>
+    <t>Fortin del Pozo</t>
+  </si>
+  <si>
+    <t>La Cascada</t>
+  </si>
+  <si>
+    <t>Cumbres del Golf</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>Cumbres de Villa Allende</t>
+  </si>
+  <si>
+    <t>Chacra Escondida</t>
   </si>
 </sst>
 </file>
@@ -1538,8 +1577,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1817,15 +1857,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="E41" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1994,25 +2043,25 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>49</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>51</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>52</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>53</v>
-      </c>
-      <c r="L5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2020,37 +2069,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
       <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
         <v>59</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>61</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>62</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>63</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2058,37 +2107,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
         <v>67</v>
       </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
         <v>69</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>70</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>71</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>72</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>73</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>74</v>
-      </c>
-      <c r="L7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2096,37 +2145,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
         <v>80</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>81</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>82</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>83</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>85</v>
-      </c>
-      <c r="L8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2134,34 +2183,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
         <v>91</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>92</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>93</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>94</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>95</v>
-      </c>
-      <c r="K9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2169,34 +2218,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
         <v>101</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>102</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>103</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>104</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>105</v>
-      </c>
-      <c r="K10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2204,34 +2253,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
         <v>111</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>112</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>113</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>114</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>115</v>
-      </c>
-      <c r="K11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2239,34 +2288,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
         <v>117</v>
       </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
         <v>121</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>122</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>123</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>124</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>125</v>
-      </c>
-      <c r="K12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2274,34 +2323,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
         <v>127</v>
       </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
         <v>131</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>132</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>133</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>134</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>135</v>
-      </c>
-      <c r="K13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2309,34 +2358,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
         <v>137</v>
       </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
         <v>141</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>142</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>143</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>144</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>145</v>
-      </c>
-      <c r="K14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2344,34 +2393,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
         <v>147</v>
       </c>
-      <c r="C15" t="s">
-        <v>148</v>
-      </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
         <v>151</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>152</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>153</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>154</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>155</v>
-      </c>
-      <c r="K15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2379,34 +2428,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" t="s">
         <v>157</v>
       </c>
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
         <v>161</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>162</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>163</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>164</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>165</v>
-      </c>
-      <c r="K16" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -2414,34 +2463,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
         <v>167</v>
       </c>
-      <c r="C17" t="s">
-        <v>168</v>
-      </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
         <v>171</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>172</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>173</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>174</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>175</v>
-      </c>
-      <c r="K17" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -2449,31 +2498,31 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" t="s">
         <v>180</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>181</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>182</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>183</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>184</v>
-      </c>
-      <c r="K18" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -2481,31 +2530,31 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" t="s">
         <v>188</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>189</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>190</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>191</v>
-      </c>
-      <c r="J19" t="s">
-        <v>192</v>
-      </c>
-      <c r="K19" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -2513,28 +2562,28 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G20" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" t="s">
         <v>196</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>197</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>198</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>199</v>
-      </c>
-      <c r="J20" t="s">
-        <v>200</v>
-      </c>
-      <c r="K20" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -2542,28 +2591,28 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" t="s">
         <v>204</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>205</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>206</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>207</v>
-      </c>
-      <c r="J21" t="s">
-        <v>208</v>
-      </c>
-      <c r="K21" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -2571,28 +2620,28 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" t="s">
         <v>212</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>213</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>214</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>215</v>
-      </c>
-      <c r="J22" t="s">
-        <v>216</v>
-      </c>
-      <c r="K22" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2600,28 +2649,28 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" t="s">
+        <v>219</v>
+      </c>
+      <c r="H23" t="s">
         <v>220</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>221</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>222</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>223</v>
-      </c>
-      <c r="J23" t="s">
-        <v>224</v>
-      </c>
-      <c r="K23" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -2629,28 +2678,28 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24" t="s">
         <v>228</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
+        <v>484</v>
+      </c>
+      <c r="J24" t="s">
         <v>229</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" t="s">
         <v>230</v>
-      </c>
-      <c r="I24" t="s">
-        <v>231</v>
-      </c>
-      <c r="J24" t="s">
-        <v>232</v>
-      </c>
-      <c r="K24" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2658,28 +2707,28 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" t="s">
+        <v>485</v>
+      </c>
+      <c r="F25" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" t="s">
         <v>234</v>
       </c>
-      <c r="D25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
+        <v>235</v>
+      </c>
+      <c r="I25" t="s">
         <v>236</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>237</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
         <v>238</v>
-      </c>
-      <c r="I25" t="s">
-        <v>239</v>
-      </c>
-      <c r="J25" t="s">
-        <v>240</v>
-      </c>
-      <c r="K25" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2687,28 +2736,28 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" t="s">
         <v>242</v>
       </c>
-      <c r="D26" t="s">
-        <v>251</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
+        <v>243</v>
+      </c>
+      <c r="I26" t="s">
         <v>244</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" t="s">
         <v>245</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
         <v>246</v>
-      </c>
-      <c r="I26" t="s">
-        <v>247</v>
-      </c>
-      <c r="J26" t="s">
-        <v>248</v>
-      </c>
-      <c r="K26" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2716,28 +2765,28 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" t="s">
+        <v>263</v>
+      </c>
+      <c r="G27" t="s">
         <v>250</v>
       </c>
-      <c r="D27" t="s">
-        <v>258</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
+        <v>251</v>
+      </c>
+      <c r="I27" t="s">
         <v>252</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J27" t="s">
         <v>253</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>254</v>
-      </c>
-      <c r="I27" t="s">
-        <v>255</v>
-      </c>
-      <c r="J27" t="s">
-        <v>256</v>
-      </c>
-      <c r="K27" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2745,28 +2794,28 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" t="s">
+        <v>258</v>
+      </c>
+      <c r="I28" t="s">
         <v>259</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J28" t="s">
         <v>260</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>261</v>
-      </c>
-      <c r="I28" t="s">
-        <v>262</v>
-      </c>
-      <c r="J28" t="s">
-        <v>263</v>
-      </c>
-      <c r="K28" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2774,25 +2823,25 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" t="s">
+        <v>481</v>
+      </c>
+      <c r="I29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" t="s">
         <v>266</v>
       </c>
-      <c r="G29" t="s">
+      <c r="K29" t="s">
         <v>267</v>
-      </c>
-      <c r="H29" t="s">
-        <v>489</v>
-      </c>
-      <c r="I29" t="s">
-        <v>268</v>
-      </c>
-      <c r="J29" t="s">
-        <v>269</v>
-      </c>
-      <c r="K29" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2800,22 +2849,22 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" t="s">
+        <v>270</v>
+      </c>
+      <c r="I30" t="s">
+        <v>271</v>
+      </c>
+      <c r="J30" t="s">
         <v>272</v>
       </c>
-      <c r="G30" t="s">
+      <c r="K30" t="s">
         <v>273</v>
-      </c>
-      <c r="I30" t="s">
-        <v>274</v>
-      </c>
-      <c r="J30" t="s">
-        <v>275</v>
-      </c>
-      <c r="K30" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2823,19 +2872,19 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="I31" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" t="s">
+        <v>277</v>
+      </c>
+      <c r="K31" t="s">
         <v>278</v>
-      </c>
-      <c r="I31" t="s">
-        <v>279</v>
-      </c>
-      <c r="J31" t="s">
-        <v>280</v>
-      </c>
-      <c r="K31" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2843,19 +2892,19 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F32" t="s">
+        <v>290</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
         <v>283</v>
-      </c>
-      <c r="I32" t="s">
-        <v>284</v>
-      </c>
-      <c r="J32" t="s">
-        <v>285</v>
-      </c>
-      <c r="K32" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -2863,19 +2912,19 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="I33" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" t="s">
         <v>288</v>
-      </c>
-      <c r="I33" t="s">
-        <v>289</v>
-      </c>
-      <c r="J33" t="s">
-        <v>290</v>
-      </c>
-      <c r="K33" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -2883,19 +2932,19 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F34" t="s">
+        <v>300</v>
+      </c>
+      <c r="I34" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" t="s">
         <v>293</v>
-      </c>
-      <c r="I34" t="s">
-        <v>294</v>
-      </c>
-      <c r="J34" t="s">
-        <v>295</v>
-      </c>
-      <c r="K34" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2903,19 +2952,19 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F35" t="s">
+        <v>305</v>
+      </c>
+      <c r="I35" t="s">
+        <v>296</v>
+      </c>
+      <c r="J35" t="s">
+        <v>297</v>
+      </c>
+      <c r="K35" t="s">
         <v>298</v>
-      </c>
-      <c r="I35" t="s">
-        <v>299</v>
-      </c>
-      <c r="J35" t="s">
-        <v>300</v>
-      </c>
-      <c r="K35" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -2923,19 +2972,19 @@
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F36" t="s">
+        <v>310</v>
+      </c>
+      <c r="I36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
         <v>303</v>
-      </c>
-      <c r="I36" t="s">
-        <v>304</v>
-      </c>
-      <c r="J36" t="s">
-        <v>305</v>
-      </c>
-      <c r="K36" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -2943,19 +2992,19 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F37" t="s">
+        <v>315</v>
+      </c>
+      <c r="I37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J37" t="s">
+        <v>307</v>
+      </c>
+      <c r="K37" t="s">
         <v>308</v>
-      </c>
-      <c r="I37" t="s">
-        <v>309</v>
-      </c>
-      <c r="J37" t="s">
-        <v>310</v>
-      </c>
-      <c r="K37" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -2963,19 +3012,19 @@
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F38" t="s">
+        <v>320</v>
+      </c>
+      <c r="I38" t="s">
+        <v>311</v>
+      </c>
+      <c r="J38" t="s">
+        <v>312</v>
+      </c>
+      <c r="K38" t="s">
         <v>313</v>
-      </c>
-      <c r="I38" t="s">
-        <v>314</v>
-      </c>
-      <c r="J38" t="s">
-        <v>315</v>
-      </c>
-      <c r="K38" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2983,19 +3032,19 @@
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F39" t="s">
+        <v>325</v>
+      </c>
+      <c r="I39" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" t="s">
         <v>318</v>
-      </c>
-      <c r="I39" t="s">
-        <v>319</v>
-      </c>
-      <c r="J39" t="s">
-        <v>320</v>
-      </c>
-      <c r="K39" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -3003,19 +3052,19 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F40" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" t="s">
+        <v>321</v>
+      </c>
+      <c r="J40" t="s">
+        <v>322</v>
+      </c>
+      <c r="K40" t="s">
         <v>323</v>
-      </c>
-      <c r="I40" t="s">
-        <v>324</v>
-      </c>
-      <c r="J40" t="s">
-        <v>325</v>
-      </c>
-      <c r="K40" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3023,19 +3072,19 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F41" t="s">
+        <v>335</v>
+      </c>
+      <c r="I41" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" t="s">
+        <v>327</v>
+      </c>
+      <c r="K41" t="s">
         <v>328</v>
-      </c>
-      <c r="I41" t="s">
-        <v>329</v>
-      </c>
-      <c r="J41" t="s">
-        <v>330</v>
-      </c>
-      <c r="K41" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3043,19 +3092,19 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F42" t="s">
+        <v>340</v>
+      </c>
+      <c r="I42" t="s">
+        <v>331</v>
+      </c>
+      <c r="J42" t="s">
+        <v>332</v>
+      </c>
+      <c r="K42" t="s">
         <v>333</v>
-      </c>
-      <c r="I42" t="s">
-        <v>334</v>
-      </c>
-      <c r="J42" t="s">
-        <v>335</v>
-      </c>
-      <c r="K42" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3063,19 +3112,19 @@
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F43" t="s">
+        <v>345</v>
+      </c>
+      <c r="I43" t="s">
+        <v>336</v>
+      </c>
+      <c r="J43" t="s">
+        <v>337</v>
+      </c>
+      <c r="K43" t="s">
         <v>338</v>
-      </c>
-      <c r="I43" t="s">
-        <v>339</v>
-      </c>
-      <c r="J43" t="s">
-        <v>340</v>
-      </c>
-      <c r="K43" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -3083,19 +3132,19 @@
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F44" t="s">
+        <v>350</v>
+      </c>
+      <c r="I44" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" t="s">
         <v>343</v>
-      </c>
-      <c r="I44" t="s">
-        <v>344</v>
-      </c>
-      <c r="J44" t="s">
-        <v>345</v>
-      </c>
-      <c r="K44" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -3103,19 +3152,19 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F45" t="s">
+        <v>354</v>
+      </c>
+      <c r="I45" t="s">
+        <v>346</v>
+      </c>
+      <c r="J45" t="s">
+        <v>347</v>
+      </c>
+      <c r="K45" t="s">
         <v>348</v>
-      </c>
-      <c r="I45" t="s">
-        <v>349</v>
-      </c>
-      <c r="J45" t="s">
-        <v>350</v>
-      </c>
-      <c r="K45" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3123,16 +3172,16 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="I46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3140,16 +3189,16 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F47" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="I47" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K47" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3157,16 +3206,16 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F48" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="I48" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K48" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3174,16 +3223,16 @@
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F49" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="I49" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -3191,16 +3240,16 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F50" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="I50" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K50" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -3208,16 +3257,16 @@
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F51" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="I51" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K51" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -3225,16 +3274,16 @@
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="F52" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="I52" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K52" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -3242,16 +3291,16 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="I53" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K53" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -3259,16 +3308,16 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F54" t="s">
-        <v>161</v>
+        <v>391</v>
       </c>
       <c r="I54" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K54" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -3276,16 +3325,16 @@
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F55" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="I55" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K55" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -3293,16 +3342,16 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F56" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="I56" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K56" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -3310,16 +3359,16 @@
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F57" t="s">
-        <v>395</v>
+        <v>493</v>
       </c>
       <c r="I57" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K57" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -3327,16 +3376,16 @@
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F58" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="I58" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K58" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -3344,16 +3393,16 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F59" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="I59" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K59" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -3361,16 +3410,16 @@
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F60" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="I60" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K60" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -3378,16 +3427,16 @@
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F61" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
       <c r="I61" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K61" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -3395,16 +3444,16 @@
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F62" t="s">
-        <v>414</v>
+        <v>476</v>
       </c>
       <c r="I62" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K62" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -3412,16 +3461,16 @@
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F63" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I63" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K63" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -3429,16 +3478,16 @@
         <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F64" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="I64" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K64" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -3446,16 +3495,16 @@
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F65" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="I65" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K65" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -3463,16 +3512,16 @@
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F66" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="I66" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K66" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -3480,13 +3529,16 @@
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>435</v>
+        <v>432</v>
+      </c>
+      <c r="F67" t="s">
+        <v>497</v>
       </c>
       <c r="I67" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K67" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -3494,13 +3546,13 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I68" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K68" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -3508,13 +3560,13 @@
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I69" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K69" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3522,13 +3574,13 @@
         <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I70" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K70" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -3536,13 +3588,13 @@
         <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I71" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K71" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -3550,13 +3602,13 @@
         <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I72" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K72" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3564,13 +3616,13 @@
         <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I73" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K73" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -3578,13 +3630,13 @@
         <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I74" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="K74" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -3592,13 +3644,13 @@
         <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I75" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K75" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -3606,13 +3658,13 @@
         <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="I76" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K76" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -3620,13 +3672,13 @@
         <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="I77" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K77" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -3634,13 +3686,13 @@
         <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I78" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K78" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3648,13 +3700,13 @@
         <v>77</v>
       </c>
       <c r="D79" t="s">
+        <v>469</v>
+      </c>
+      <c r="I79" t="s">
+        <v>459</v>
+      </c>
+      <c r="K79" t="s">
         <v>466</v>
-      </c>
-      <c r="I79" t="s">
-        <v>465</v>
-      </c>
-      <c r="K79" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -3662,13 +3714,13 @@
         <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="I80" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K80" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -3676,13 +3728,13 @@
         <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I81" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K81" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -3690,13 +3742,13 @@
         <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="I82" t="s">
+        <v>501</v>
+      </c>
+      <c r="K82" t="s">
         <v>478</v>
-      </c>
-      <c r="K82" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -3704,10 +3756,13 @@
         <v>81</v>
       </c>
       <c r="D83" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I83" t="s">
-        <v>492</v>
+        <v>498</v>
+      </c>
+      <c r="K83" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -3715,7 +3770,10 @@
         <v>82</v>
       </c>
       <c r="D84" t="s">
-        <v>473</v>
+        <v>468</v>
+      </c>
+      <c r="K84" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -3723,7 +3781,10 @@
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>474</v>
+        <v>499</v>
+      </c>
+      <c r="K85" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -3731,7 +3792,10 @@
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>479</v>
+        <v>472</v>
+      </c>
+      <c r="K86" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -3739,7 +3803,10 @@
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="K87" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -3747,7 +3814,45 @@
         <v>86</v>
       </c>
       <c r="D88" t="s">
-        <v>490</v>
+        <v>240</v>
+      </c>
+      <c r="K88" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="D89" t="s">
+        <v>494</v>
+      </c>
+      <c r="K89" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K90" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="D91" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
